--- a/templates/RSTKF_AutomationData.xlsx
+++ b/templates/RSTKF_AutomationData.xlsx
@@ -538,7 +538,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="142" x14ac:knownFonts="1">
+  <fonts count="174" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +575,198 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1413,7 +1605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="69">
+  <borders count="85">
     <border>
       <left/>
       <right/>
@@ -1625,11 +1817,59 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="178">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -1778,8 +2018,40 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="137" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="138" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="139" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="141" fillId="0" borderId="68" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="140" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="141" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="142" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="143" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="144" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="145" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="146" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="147" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="148" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="149" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="150" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="151" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="152" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="153" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="154" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="155" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="156" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="157" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="158" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="159" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="160" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="161" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="162" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="163" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="164" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="165" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="166" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="167" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="168" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="169" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="170" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="171" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="173" fillId="0" borderId="84" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>

--- a/templates/RSTKF_AutomationData.xlsx
+++ b/templates/RSTKF_AutomationData.xlsx
@@ -538,7 +538,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="174" x14ac:knownFonts="1">
+  <fonts count="142" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,198 +575,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1605,7 +1413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="85">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -1817,59 +1625,11 @@
     <border>
       <bottom style="thin"/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="146">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -2018,40 +1778,8 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="137" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="138" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="139" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="140" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="141" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="142" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="143" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="144" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="145" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="146" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="147" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="148" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="149" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="150" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="151" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="152" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="153" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="154" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="155" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="156" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="157" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="158" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="159" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="160" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="161" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="162" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="163" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="164" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="165" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="166" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="167" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="168" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="169" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="170" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="171" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="173" fillId="0" borderId="84" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="141" fillId="0" borderId="68" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>

--- a/templates/RSTKF_AutomationData.xlsx
+++ b/templates/RSTKF_AutomationData.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="165">
   <si>
     <t>Vendor</t>
   </si>
@@ -529,6 +529,24 @@
   </si>
   <si>
     <t>1561.0</t>
+  </si>
+  <si>
+    <t>953.0</t>
+  </si>
+  <si>
+    <t>1637.0</t>
+  </si>
+  <si>
+    <t>955.0</t>
+  </si>
+  <si>
+    <t>1639.0</t>
+  </si>
+  <si>
+    <t>957.0</t>
+  </si>
+  <si>
+    <t>1641.0</t>
   </si>
 </sst>
 </file>
@@ -538,7 +556,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="142" x14ac:knownFonts="1">
+  <fonts count="174" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +593,198 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1413,7 +1623,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="69">
+  <borders count="85">
     <border>
       <left/>
       <right/>
@@ -1625,11 +1835,59 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="178">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -1778,8 +2036,40 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="137" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="138" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="139" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="141" fillId="0" borderId="68" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="140" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="141" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="142" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="143" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="144" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="145" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="146" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="147" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="148" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="149" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="150" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="151" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="152" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="153" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="154" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="155" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="156" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="157" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="158" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="159" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="160" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="161" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="162" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="163" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="164" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="165" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="166" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="167" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="168" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="169" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="170" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="171" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="173" fillId="0" borderId="84" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2645,10 +2935,10 @@
         <v>116</v>
       </c>
       <c r="H2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2671,10 +2961,10 @@
         <v>117</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/templates/RSTKF_AutomationData.xlsx
+++ b/templates/RSTKF_AutomationData.xlsx
@@ -556,7 +556,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="174" x14ac:knownFonts="1">
+  <fonts count="230" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,6 +593,342 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1623,7 +1959,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="85">
+  <borders count="113">
     <border>
       <left/>
       <right/>
@@ -1883,11 +2219,95 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="234">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -2068,8 +2488,64 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="169" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="170" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="171" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="173" fillId="0" borderId="84" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="172" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="173" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="174" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="175" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="176" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="177" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="178" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="87" fillId="0" fontId="179" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="180" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="181" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="182" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="183" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="184" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="90" fillId="0" fontId="185" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="186" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="91" fillId="0" fontId="187" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="188" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="92" fillId="0" fontId="189" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="190" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="93" fillId="0" fontId="191" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="192" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="94" fillId="0" fontId="193" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="194" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="95" fillId="0" fontId="195" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="196" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="96" fillId="0" fontId="197" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="198" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="97" fillId="0" fontId="199" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="200" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="98" fillId="0" fontId="201" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="202" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="99" fillId="0" fontId="203" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="204" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="100" fillId="0" fontId="205" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="206" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="101" fillId="0" fontId="207" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="208" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="102" fillId="0" fontId="209" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="210" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="103" fillId="0" fontId="211" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="212" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="104" fillId="0" fontId="213" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="214" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="105" fillId="0" fontId="215" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="216" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="106" fillId="0" fontId="217" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="218" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="107" fillId="0" fontId="219" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="220" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="108" fillId="0" fontId="221" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="222" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="109" fillId="0" fontId="223" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="224" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="110" fillId="0" fontId="225" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="226" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="111" fillId="0" fontId="227" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="229" fillId="0" borderId="112" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
